--- a/Doc/BugList.xlsx
+++ b/Doc/BugList.xlsx
@@ -19,54 +19,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>1.怪物血量喂猫都是1.</t>
-  </si>
-  <si>
-    <t>2.地图显示的血量和战斗中显示的不一致。</t>
-  </si>
-  <si>
-    <t>4。地图里背包无法打开</t>
-  </si>
-  <si>
-    <t>5，不知道地图到底有多少关，让玩家很苦恼，修改成一开始就指定好关卡数量，让玩家知道还要打几个关卡才能打到BOSS，无限模式的话，也要记录自己打的关卡数量，并且5的倍数出现boss</t>
-  </si>
-  <si>
-    <t>6，金币等状态没有展示。</t>
-  </si>
-  <si>
-    <t>7，打怪不要获取卡牌，卡牌只能由箱子掉落或者商店购买，如果目前没空做商店购买界面，就只由箱子掉落。</t>
-  </si>
-  <si>
-    <t>8，食物系统似乎并没有实装，虽然开新地块可以回血回魔。</t>
-  </si>
-  <si>
-    <t>9.有个BUG，地图上会显示奇怪的红叉叉，点开是卡牌的展示信息</t>
-  </si>
-  <si>
-    <t>3，部分道具不能正确的使用，是表的问题吗？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>1.开新图块时，扣1食物，回复2血1魔。</t>
+  </si>
+  <si>
+    <t>2.当食物为0时，每开一个新图块，食物不会扣到负，但是会扣血上限的10%，一直扣到死，或者获得新的食物。死亡退出副本。</t>
+  </si>
+  <si>
+    <t>3.打怪不要掉落卡牌，卡牌只能由箱子掉落或者商店购买。</t>
+  </si>
+  <si>
+    <t>4.手牌溢出的时候，你看做个什么提示，比如手牌数量那里字体变红色，表示满了。</t>
+  </si>
+  <si>
+    <t>5.地图场景加一个当前关卡，1/5这样。</t>
+  </si>
+  <si>
+    <t>6.地图配置增加BOSS的配置项。</t>
+  </si>
+  <si>
+    <t>7.副本退出时，金币的数量不会同步到主界面。</t>
+  </si>
+  <si>
+    <t>8.背包实装一下。</t>
+  </si>
+  <si>
+    <t>9.文字速度改为默认1的那个最快速的，然后以它为中心基准，做一个比他快1倍的和慢一倍的文字速度选项。其他的文字选项可以删了，那么慢谁特么看啊。</t>
+  </si>
+  <si>
+    <t>Boss制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,17 +72,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,19 +89,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -401,52 +386,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Doc/BugList.xlsx
+++ b/Doc/BugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>1.开新图块时，扣1食物，回复2血1魔。</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Boss制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包的消耗品展示及使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备和技能的配置及使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图物品使用机制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -435,6 +447,21 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/BugList.xlsx
+++ b/Doc/BugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>1.开新图块时，扣1食物，回复2血1魔。</t>
   </si>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>地图物品使用机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情副本走策划配置路线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -462,6 +466,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/BugList.xlsx
+++ b/Doc/BugList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>1.开新图块时，扣1食物，回复2血1魔。</t>
   </si>
@@ -64,7 +64,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剧情副本走策划配置路线</t>
+    <t>PromptTable.xlsx改Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TradeTable.xlsx改名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,6 +475,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
